--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_175.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_175.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:18.129546', '0:00:28.590136')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -573,632 +580,580 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:17.020000', '0:00:23.280000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09064112011790715</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F', 'G', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D', 'E', 'A'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:04.394943', '0:00:08.342335'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:39.341337', '0:01:47.027142'), ('0:00:07.935986', '0:00:12.498707')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:00:08.340000', '0:00:11.680000'), ('0:00:07.840000', '0:00:11.160000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.28, 62.86)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.76, 34.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(44.2, 54.16)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
